--- a/data/birthdeath.xlsx
+++ b/data/birthdeath.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/opt/local/GitHub/literacy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/opt/local/GitHub/literacy4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769A9B7B-128A-2646-8FB1-19C234FA0A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24E790A1-0B19-614D-8E0C-1ED3B50F8806}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="31480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="7000" windowWidth="23900" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="birthdeath" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -31,59 +23,361 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>年</t>
-    <rPh sb="0" eb="1">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>出生数</t>
-    <rPh sb="0" eb="3">
-      <t>シュッショウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>死亡数</t>
-    <rPh sb="0" eb="3">
-      <t>シボウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -91,25 +385,293 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -122,7 +684,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -167,9 +729,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -197,14 +759,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -232,6 +811,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,1336 +979,1328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1899</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1386981</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>932087</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1900</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1420534</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>910744</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1901</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1501591</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>925810</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1902</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1510835</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>959126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1903</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1489816</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>931008</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1904</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1440371</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>955400</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1905</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>1452770</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1004661</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1906</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>1394295</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>955256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1907</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>1614472</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>1016798</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1908</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>1662815</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>1029447</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1909</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1693850</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>1091264</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1910</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>1712857</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>1064234</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1911</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>1747803</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>1043906</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1912</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>1737674</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>1037016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1913</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>1757441</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>1027257</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>1914</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>1808402</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>1101815</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1915</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>1799326</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>1093793</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1916</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>1804822</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>1187832</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>1917</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>1812413</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>1199669</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>1918</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>1791992</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>1493162</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>1919</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>1778685</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>1281965</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>1920</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>2025564</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>1422096</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>1921</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>1990876</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>1288570</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>1922</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>1969314</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>1286941</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>1923</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>2043297</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>1332485</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>1924</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1998520</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>1254946</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>1925</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>2086091</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>1210706</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>1926</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>2104405</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>1160734</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>1927</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>2060737</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>1214323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>1928</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>2135852</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>1236711</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>1929</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>2077026</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>1261228</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>1930</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>2085101</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>1170867</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>1931</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>2102784</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>1240891</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>1932</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>2182742</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>1175344</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>1933</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>2121253</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>1193987</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>1934</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>2043783</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>1234684</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>1935</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>2190704</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>1161936</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>1936</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>2101969</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>1230278</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>1937</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>2180734</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>1207899</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>1938</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>1928321</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>1259805</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>1939</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>1901573</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>1268760</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>1940</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>2115867</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>1186595</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>1941</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>2277283</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>1149559</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>1942</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>2233660</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>1166630</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>1943</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>2253535</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>1213811</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>1944</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>1945</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>1946</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>1947</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>2678792</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>1138238</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>1948</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>2681624</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>950610</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>1949</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>2696638</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>945444</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>1950</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>2337507</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>904876</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>1951</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>2137689</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>838998</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>1952</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>2005162</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>765068</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>1953</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>1868040</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>772547</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>1954</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>1769580</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>721491</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>1955</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>1730692</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>693523</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>1956</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>1665278</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>724460</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>1957</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>1566713</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>752445</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>1958</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>1653469</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>684189</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>1959</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>1626088</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>689959</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>1960</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>1606041</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>706599</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>1961</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>1589372</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>695644</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>1962</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>1618616</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>710265</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>1963</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>1659521</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>670770</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>1964</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>1716761</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>673067</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>1965</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>1823697</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>700438</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>1966</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>1360974</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>670342</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>1967</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>1935647</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>675006</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>1968</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>1871839</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>686555</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>1969</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>1889815</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>693787</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>1970</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>1934239</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>712962</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>1971</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>2000973</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>684521</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>1972</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>2038682</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>683751</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>1973</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>2091983</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>709416</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>1974</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>2029989</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>710510</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>1975</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>1901440</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>702275</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>1976</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>1832617</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>703270</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>1977</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>1755100</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>690074</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>1978</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>1708643</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>695821</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>1979</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>1642580</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>689664</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>1980</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>1576889</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>722801</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>1981</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>1529455</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>720262</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>1982</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>1515392</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>711883</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>1983</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>1508687</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>740038</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>1984</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>1489780</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>740247</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>1985</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>1431577</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>752283</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>1986</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>1382946</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>750620</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>1987</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>1346658</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>751172</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>1988</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>1314006</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>793014</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>1989</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>1246802</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>788594</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>1990</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>1221585</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>820305</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>1991</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
         <v>1223245</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
         <v>829797</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>1992</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>1208989</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
         <v>856643</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>1993</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>1188282</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>878532</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>1994</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
         <v>1238328</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97">
         <v>875933</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>1995</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>1187064</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>922139</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>1996</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>1206555</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>896211</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>1997</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>1191665</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>913402</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>1998</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>1203147</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>936484</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>1999</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>1177669</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>982031</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>2000</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>1190547</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>961653</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>2001</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>1170662</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>970331</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>2002</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>1153855</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>982379</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>2003</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>1123610</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>1014951</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>2004</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107">
         <v>1110721</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>1028602</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>2005</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
         <v>1062530</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>1083796</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>2006</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
         <v>1092674</v>
       </c>
-      <c r="C109" s="1">
-        <v>1084450</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>1084451</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>2007</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>1089818</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>1108334</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>2008</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>1091156</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>1142407</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>2009</v>
       </c>
-      <c r="B112" s="1">
-        <v>1070035</v>
-      </c>
-      <c r="C112" s="1">
+      <c r="B112">
+        <v>1070036</v>
+      </c>
+      <c r="C112">
         <v>1141865</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>2010</v>
       </c>
-      <c r="B113" s="1">
-        <v>1071304</v>
-      </c>
-      <c r="C113" s="1">
-        <v>1197012</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1071305</v>
+      </c>
+      <c r="C113">
+        <v>1197014</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>2011</v>
       </c>
-      <c r="B114" s="1">
-        <v>1050806</v>
-      </c>
-      <c r="C114" s="1">
-        <v>1253066</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1050807</v>
+      </c>
+      <c r="C114">
+        <v>1253068</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>2012</v>
       </c>
-      <c r="B115" s="1">
-        <v>1037231</v>
-      </c>
-      <c r="C115" s="1">
+      <c r="B115">
+        <v>1037232</v>
+      </c>
+      <c r="C115">
         <v>1256359</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>2013</v>
       </c>
-      <c r="B116" s="1">
-        <v>1029816</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1268436</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1029817</v>
+      </c>
+      <c r="C116">
+        <v>1268438</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>2014</v>
       </c>
-      <c r="B117" s="1">
-        <v>1003539</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1273004</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>1003609</v>
+      </c>
+      <c r="C117">
+        <v>1273025</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>2015</v>
       </c>
-      <c r="B118" s="1">
-        <v>1005677</v>
-      </c>
-      <c r="C118" s="1">
-        <v>1290444</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="B118">
+        <v>1005721</v>
+      </c>
+      <c r="C118">
+        <v>1290510</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
         <v>2016</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>977242</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>1308158</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+    <row r="120" spans="1:3">
+      <c r="A120">
         <v>2017</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>946146</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120">
         <v>1340567</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+    <row r="121" spans="1:3">
+      <c r="A121">
         <v>2018</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>918400</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>1362470</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>